--- a/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8AA992-9A04-4529-84DC-28B63A7DF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3745CDE-3DE7-456E-BCBB-467943A18851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19A327B6-A392-4503-88A5-5A1F9E2549EA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5035B963-61D2-40C8-B533-D3018991C08D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1321 +139,1351 @@
     <t>70,2%</t>
   </si>
   <si>
-    <t>56,42%</t>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>68,21%</t>
   </si>
   <si>
-    <t>74,67%</t>
+    <t>60,31%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>25,33%</t>
+    <t>39,69%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>78,19%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>74,43%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,81%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,57%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DEBF98-9AE4-4C59-864E-1AB4CC917B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64557636-1BDD-498B-A5FD-0E8ABA5EEC05}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2770,7 +2800,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -2779,13 +2809,13 @@
         <v>55047</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -2794,13 +2824,13 @@
         <v>82854</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2845,13 @@
         <v>8598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2830,13 +2860,13 @@
         <v>12487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2845,13 +2875,13 @@
         <v>21085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +2937,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2919,13 +2949,13 @@
         <v>68905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -2934,13 +2964,13 @@
         <v>119827</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -2949,13 +2979,13 @@
         <v>188733</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +3000,13 @@
         <v>16859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2985,13 +3015,13 @@
         <v>13465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3000,13 +3030,13 @@
         <v>30323</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3092,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3104,13 @@
         <v>101389</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -3089,13 +3119,13 @@
         <v>174054</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>268</v>
@@ -3104,13 +3134,13 @@
         <v>275443</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3155,13 @@
         <v>29015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -3140,13 +3170,13 @@
         <v>37830</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -3155,13 +3185,13 @@
         <v>66845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3259,13 @@
         <v>349926</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>650</v>
@@ -3244,28 +3274,28 @@
         <v>670954</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1008</v>
       </c>
       <c r="N28" s="7">
-        <v>1020879</v>
+        <v>1020880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3310,13 @@
         <v>101108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3295,13 +3325,13 @@
         <v>129804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -3310,13 +3340,13 @@
         <v>230912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3388,7 @@
         <v>1236</v>
       </c>
       <c r="N30" s="7">
-        <v>1251791</v>
+        <v>1251792</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3372,7 +3402,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5FE078-3D9A-47D1-9681-EEDEA7BF5582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CB553-33CC-420F-BE9C-A176C9496B02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,39 +3548,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,39 +3593,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,39 +3638,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3687,13 @@
         <v>70075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3672,13 +3702,13 @@
         <v>136529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -3687,13 +3717,13 @@
         <v>206604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3738,13 @@
         <v>35967</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3723,13 +3753,13 @@
         <v>44914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3738,13 +3768,13 @@
         <v>80881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3842,13 @@
         <v>59257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -3827,13 +3857,13 @@
         <v>96349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -3842,13 +3872,13 @@
         <v>155606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3893,13 @@
         <v>11606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3878,13 +3908,13 @@
         <v>13681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3893,13 +3923,13 @@
         <v>25287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3997,13 @@
         <v>83255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -3982,13 +4012,13 @@
         <v>181092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3997,13 +4027,13 @@
         <v>264347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4048,13 @@
         <v>37449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4033,13 +4063,13 @@
         <v>49747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4048,13 +4078,13 @@
         <v>87196</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4152,13 @@
         <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4137,13 +4167,13 @@
         <v>79145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4152,13 +4182,13 @@
         <v>112196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4203,13 @@
         <v>2849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4188,13 +4218,13 @@
         <v>18350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4203,13 +4233,13 @@
         <v>21199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4307,13 @@
         <v>43255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -4292,13 +4322,13 @@
         <v>88059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4307,13 +4337,13 @@
         <v>131315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4358,13 @@
         <v>9747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4343,13 +4373,13 @@
         <v>17752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4358,13 +4388,13 @@
         <v>27498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4450,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4432,13 +4462,13 @@
         <v>86244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4447,13 +4477,13 @@
         <v>181806</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -4462,13 +4492,13 @@
         <v>268050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4513,13 @@
         <v>24144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4498,13 +4528,13 @@
         <v>42501</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4513,13 +4543,13 @@
         <v>66645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4605,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4587,13 +4617,13 @@
         <v>88116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -4602,13 +4632,13 @@
         <v>178807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -4617,13 +4647,13 @@
         <v>266923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4668,13 @@
         <v>22493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4653,13 +4683,13 @@
         <v>58235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -4668,13 +4698,13 @@
         <v>80728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4772,13 @@
         <v>463252</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>869</v>
@@ -4757,13 +4787,13 @@
         <v>941789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1297</v>
@@ -4772,13 +4802,13 @@
         <v>1405041</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4823,13 @@
         <v>144255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -4808,13 +4838,13 @@
         <v>245179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4823,13 +4853,13 @@
         <v>389434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4915,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD2574E-92E7-4B9A-8492-CA2DBEEB9D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1C814-26A8-46CD-8A8E-E02FA663730D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5063,13 @@
         <v>28646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5048,13 +5078,13 @@
         <v>63796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5063,13 +5093,13 @@
         <v>92442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5114,13 @@
         <v>33769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -5099,10 +5129,10 @@
         <v>29685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>336</v>
@@ -5349,7 +5379,7 @@
         <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5358,13 +5388,13 @@
         <v>86179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5373,13 +5403,13 @@
         <v>131221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5424,13 @@
         <v>17481</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5409,13 +5439,13 @@
         <v>22468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5424,13 +5454,13 @@
         <v>39949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5528,13 @@
         <v>75221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -5513,13 +5543,13 @@
         <v>141114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5528,13 +5558,13 @@
         <v>216335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5579,13 @@
         <v>28081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -5564,13 +5594,13 @@
         <v>34291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5579,13 +5609,13 @@
         <v>62372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5683,13 @@
         <v>24088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5668,13 +5698,13 @@
         <v>55079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5683,13 +5713,13 @@
         <v>79167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5734,13 @@
         <v>4351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5719,13 +5749,13 @@
         <v>8874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5734,13 +5764,13 @@
         <v>13225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5838,13 @@
         <v>34766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5823,13 +5853,13 @@
         <v>59699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -5838,13 +5868,13 @@
         <v>94465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5889,13 @@
         <v>4067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5874,13 +5904,13 @@
         <v>8643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5889,13 +5919,13 @@
         <v>12710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5981,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5963,13 +5993,13 @@
         <v>57275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -5978,13 +6008,13 @@
         <v>104110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -5993,13 +6023,13 @@
         <v>161385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6044,13 @@
         <v>37958</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -6029,13 +6059,13 @@
         <v>43405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -6044,13 +6074,13 @@
         <v>81363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6136,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6118,13 +6148,13 @@
         <v>106722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>171</v>
@@ -6133,13 +6163,13 @@
         <v>193769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -6148,13 +6178,13 @@
         <v>300491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6199,13 @@
         <v>49738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -6184,13 +6214,13 @@
         <v>78352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -6199,13 +6229,13 @@
         <v>128090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6303,13 @@
         <v>420634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -6288,13 +6318,13 @@
         <v>817400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>1151</v>
@@ -6303,13 +6333,13 @@
         <v>1238033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6354,13 @@
         <v>211483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -6339,13 +6369,13 @@
         <v>264524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -6354,13 +6384,13 @@
         <v>476007</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6446,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3745CDE-3DE7-456E-BCBB-467943A18851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD8EDF9-D4FD-483F-8BDF-E6353FD5EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5035B963-61D2-40C8-B533-D3018991C08D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B9673FC-FC09-4528-99A1-BFE4F03AEE34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -76,232 +76,232 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>59,04%</t>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -310,55 +310,55 @@
     <t>75,28%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>24,72%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -367,1123 +367,1099 @@
     <t>76,38%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>70,04%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>50,8%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>68,21%</t>
   </si>
   <si>
-    <t>60,31%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>39,69%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>72,63%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>74,61%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>25,39%</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64557636-1BDD-498B-A5FD-0E8ABA5EEC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668C90C8-FDE0-431B-B99C-F3429EA67CCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>27807</v>
+        <v>27808</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2893,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="7">
-        <v>36405</v>
+        <v>36406</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3426,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CB553-33CC-420F-BE9C-A176C9496B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D2D821-4704-44A7-8510-210C147835F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,13 +3818,13 @@
         <v>59257</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -3857,7 +3833,7 @@
         <v>96349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>206</v>
@@ -3875,10 +3851,10 @@
         <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3869,13 @@
         <v>11606</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3908,13 +3884,13 @@
         <v>13681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3923,13 +3899,13 @@
         <v>25287</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3973,13 @@
         <v>83255</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -4012,13 +3988,13 @@
         <v>181092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -4027,13 +4003,13 @@
         <v>264347</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4024,13 @@
         <v>37449</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4063,13 +4039,13 @@
         <v>49747</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4078,13 +4054,13 @@
         <v>87196</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4128,13 @@
         <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4167,13 +4143,13 @@
         <v>79145</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4182,13 +4158,13 @@
         <v>112196</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4179,13 @@
         <v>2849</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4218,13 +4194,13 @@
         <v>18350</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4233,10 +4209,10 @@
         <v>21199</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>252</v>
@@ -4617,13 +4593,13 @@
         <v>88116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -4632,13 +4608,13 @@
         <v>178807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -4647,13 +4623,13 @@
         <v>266923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4644,13 @@
         <v>22493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4683,13 +4659,13 @@
         <v>58235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -4698,13 +4674,13 @@
         <v>80728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4748,13 @@
         <v>463252</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>869</v>
@@ -4787,13 +4763,13 @@
         <v>941789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>1297</v>
@@ -4802,13 +4778,13 @@
         <v>1405041</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4799,13 @@
         <v>144255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -4838,13 +4814,13 @@
         <v>245179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4853,13 +4829,13 @@
         <v>389434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1C814-26A8-46CD-8A8E-E02FA663730D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E540B1A2-E5E7-4C0F-B799-401EA039F2B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5063,13 +5039,13 @@
         <v>28646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5078,13 +5054,13 @@
         <v>63796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5093,13 +5069,13 @@
         <v>92442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5090,13 @@
         <v>33769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -5129,13 +5105,13 @@
         <v>29685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -5144,13 +5120,13 @@
         <v>63454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5194,13 @@
         <v>48871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5233,13 +5209,13 @@
         <v>113653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -5248,13 +5224,13 @@
         <v>162524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5245,13 @@
         <v>36040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5284,13 +5260,13 @@
         <v>38807</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5299,13 +5275,13 @@
         <v>74847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5349,13 @@
         <v>45042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5388,13 +5364,13 @@
         <v>86179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5403,13 +5379,13 @@
         <v>131221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,10 +5400,10 @@
         <v>17481</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>369</v>
@@ -5549,7 +5525,7 @@
         <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5558,13 +5534,13 @@
         <v>216335</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5555,13 @@
         <v>28081</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -5594,13 +5570,13 @@
         <v>34291</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5609,13 +5585,13 @@
         <v>62372</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5659,13 @@
         <v>24088</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5698,13 +5674,13 @@
         <v>55079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5713,13 +5689,13 @@
         <v>79167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5710,13 @@
         <v>4351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5749,13 +5725,13 @@
         <v>8874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5764,13 +5740,13 @@
         <v>13225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5814,13 @@
         <v>34766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5853,13 +5829,13 @@
         <v>59699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -5868,13 +5844,13 @@
         <v>94465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5865,13 @@
         <v>4067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5904,13 +5880,13 @@
         <v>8643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5919,13 +5895,13 @@
         <v>12710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5969,13 @@
         <v>57275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6008,13 +5984,13 @@
         <v>104110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -6023,13 +5999,13 @@
         <v>161385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6020,13 @@
         <v>37958</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -6059,13 +6035,13 @@
         <v>43405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -6074,13 +6050,13 @@
         <v>81363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6124,13 @@
         <v>106722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>171</v>
@@ -6163,13 +6139,13 @@
         <v>193769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -6178,13 +6154,13 @@
         <v>300491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6175,13 @@
         <v>49738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -6214,13 +6190,13 @@
         <v>78352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -6229,13 +6205,13 @@
         <v>128090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6279,13 @@
         <v>420634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -6318,13 +6294,13 @@
         <v>817400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>94</v>
       </c>
       <c r="M28" s="7">
         <v>1151</v>
@@ -6333,13 +6309,13 @@
         <v>1238033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6330,13 @@
         <v>211483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -6369,13 +6345,13 @@
         <v>264524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -6384,13 +6360,13 @@
         <v>476007</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD8EDF9-D4FD-483F-8BDF-E6353FD5EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38755E24-DF6F-4600-89C7-C207C94A2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B9673FC-FC09-4528-99A1-BFE4F03AEE34}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CFEAFD-AC6D-42F2-8A68-430C8EFF6A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>70,2%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,1270 +196,1264 @@
     <t>82,73%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>70,37%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>37,21%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>27,37%</t>
+    <t>21,81%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,39%</t>
+    <t>25,57%</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668C90C8-FDE0-431B-B99C-F3429EA67CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E92F9C-213B-45A9-AE74-C02E1C5B18E6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2767,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>27808</v>
+        <v>27807</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2776,7 +2770,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -2785,13 +2779,13 @@
         <v>55047</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -2800,13 +2794,13 @@
         <v>82854</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2815,13 @@
         <v>8598</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2836,13 +2830,13 @@
         <v>12487</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2851,13 +2845,13 @@
         <v>21085</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2863,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="7">
-        <v>36406</v>
+        <v>36405</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2913,7 +2907,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2925,13 +2919,13 @@
         <v>68905</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>116</v>
@@ -2940,13 +2934,13 @@
         <v>119827</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -2955,13 +2949,13 @@
         <v>188733</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>16859</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2991,13 +2985,13 @@
         <v>13465</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3006,13 +3000,13 @@
         <v>30323</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3062,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3074,13 @@
         <v>101389</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -3095,13 +3089,13 @@
         <v>174054</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>268</v>
@@ -3110,13 +3104,13 @@
         <v>275443</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>29015</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -3146,13 +3140,13 @@
         <v>37830</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -3161,13 +3155,13 @@
         <v>66845</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3229,13 @@
         <v>349926</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>650</v>
@@ -3250,28 +3244,28 @@
         <v>670954</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1008</v>
       </c>
       <c r="N28" s="7">
-        <v>1020880</v>
+        <v>1020879</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3280,13 @@
         <v>101108</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3301,13 +3295,13 @@
         <v>129804</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>228</v>
@@ -3316,13 +3310,13 @@
         <v>230912</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3358,7 @@
         <v>1236</v>
       </c>
       <c r="N30" s="7">
-        <v>1251792</v>
+        <v>1251791</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D2D821-4704-44A7-8510-210C147835F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E06C11-BA89-417A-8BA9-F91FA5F32DD4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,7 +3413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3524,39 +3518,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,39 +3563,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,39 +3608,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3657,13 @@
         <v>70075</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3678,13 +3672,13 @@
         <v>136529</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -3693,13 +3687,13 @@
         <v>206604</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3708,13 @@
         <v>35967</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3729,13 +3723,13 @@
         <v>44914</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3744,13 +3738,13 @@
         <v>80881</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3812,13 @@
         <v>59257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -3833,13 +3827,13 @@
         <v>96349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -3848,13 +3842,13 @@
         <v>155606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3863,13 @@
         <v>11606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3884,13 +3878,13 @@
         <v>13681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3899,13 +3893,13 @@
         <v>25287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3967,13 @@
         <v>83255</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -3988,13 +3982,13 @@
         <v>181092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -4003,13 +3997,13 @@
         <v>264347</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4018,13 @@
         <v>37449</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4039,13 +4033,13 @@
         <v>49747</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4054,13 +4048,13 @@
         <v>87196</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4122,13 @@
         <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4143,13 +4137,13 @@
         <v>79145</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4158,13 +4152,13 @@
         <v>112196</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4173,13 @@
         <v>2849</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4194,13 +4188,13 @@
         <v>18350</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4209,13 +4203,13 @@
         <v>21199</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4277,13 @@
         <v>43255</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -4298,13 +4292,13 @@
         <v>88059</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4313,13 +4307,13 @@
         <v>131315</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4328,13 @@
         <v>9747</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4349,13 +4343,13 @@
         <v>17752</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4364,13 +4358,13 @@
         <v>27498</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4420,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4432,13 @@
         <v>86244</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4453,13 +4447,13 @@
         <v>181806</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -4468,13 +4462,13 @@
         <v>268050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4483,13 @@
         <v>24144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4504,13 +4498,13 @@
         <v>42501</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4519,13 +4513,13 @@
         <v>66645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4575,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4587,13 @@
         <v>88116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -4608,13 +4602,13 @@
         <v>178807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -4623,13 +4617,13 @@
         <v>266923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4638,13 @@
         <v>22493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4659,13 +4653,13 @@
         <v>58235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -4674,13 +4668,13 @@
         <v>80728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4742,13 @@
         <v>463252</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>869</v>
@@ -4763,13 +4757,13 @@
         <v>941789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1297</v>
@@ -4778,13 +4772,13 @@
         <v>1405041</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4793,13 @@
         <v>144255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -4814,13 +4808,13 @@
         <v>245179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4829,13 +4823,13 @@
         <v>389434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4885,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E540B1A2-E5E7-4C0F-B799-401EA039F2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E9696-86D1-45E6-9D1C-558498D4C7A2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5039,13 +5033,13 @@
         <v>28646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5054,13 +5048,13 @@
         <v>63796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5069,13 +5063,13 @@
         <v>92442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5084,13 @@
         <v>33769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -5105,13 +5099,13 @@
         <v>29685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -5120,13 +5114,13 @@
         <v>63454</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5188,13 @@
         <v>48871</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5209,13 +5203,13 @@
         <v>113653</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -5224,13 +5218,13 @@
         <v>162524</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5239,13 @@
         <v>36040</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5260,13 +5254,13 @@
         <v>38807</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5275,13 +5269,13 @@
         <v>74847</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5343,13 @@
         <v>45042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5364,13 +5358,13 @@
         <v>86179</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5379,13 +5373,13 @@
         <v>131221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5394,13 @@
         <v>17481</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5415,13 +5409,13 @@
         <v>22468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5430,13 +5424,13 @@
         <v>39949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5498,13 @@
         <v>75221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -5519,13 +5513,13 @@
         <v>141114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5534,13 +5528,13 @@
         <v>216335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5549,13 @@
         <v>28081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -5570,13 +5564,13 @@
         <v>34291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5585,13 +5579,13 @@
         <v>62372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5653,13 @@
         <v>24088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5674,13 +5668,13 @@
         <v>55079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5689,13 +5683,13 @@
         <v>79167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5704,13 @@
         <v>4351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5725,13 +5719,13 @@
         <v>8874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5740,13 +5734,13 @@
         <v>13225</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5808,13 @@
         <v>34766</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5829,13 +5823,13 @@
         <v>59699</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -5844,13 +5838,13 @@
         <v>94465</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5859,13 @@
         <v>4067</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5957,7 +5951,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6112,7 +6106,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6127,10 +6121,10 @@
         <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>171</v>
@@ -6139,13 +6133,13 @@
         <v>193769</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -6154,13 +6148,13 @@
         <v>300491</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6169,13 @@
         <v>49738</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -6190,13 +6184,13 @@
         <v>78352</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -6205,13 +6199,13 @@
         <v>128090</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6273,13 @@
         <v>420634</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -6294,13 +6288,13 @@
         <v>817400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>1151</v>
@@ -6309,13 +6303,13 @@
         <v>1238033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6324,13 @@
         <v>211483</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -6345,13 +6339,13 @@
         <v>264524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -6360,13 +6354,13 @@
         <v>476007</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6416,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38755E24-DF6F-4600-89C7-C207C94A2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF4F3F1-26B0-4517-9DAF-096CC7742AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59CFEAFD-AC6D-42F2-8A68-430C8EFF6A8E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7593CFEF-B925-48C0-A425-B253B4FFB8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="489">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -586,7 +586,52 @@
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>66,08%</t>
@@ -685,775 +730,781 @@
     <t>19,95%</t>
   </si>
   <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
     <t>68,97%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>29,96%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E92F9C-213B-45A9-AE74-C02E1C5B18E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E0CAB5-770B-42A7-8192-70E2D5CA7C58}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3396,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E06C11-BA89-417A-8BA9-F91FA5F32DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A20BAF-C842-4282-B8DC-14ECBA5BA6E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3514,43 +3565,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30036</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="I4" s="7">
+        <v>54727</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="N4" s="7">
+        <v>84763</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,43 +3616,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17587</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18232</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>35819</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,43 +3667,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47623</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="I6" s="7">
+        <v>72959</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="N6" s="7">
+        <v>120582</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3726,13 @@
         <v>70075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3672,13 +3741,13 @@
         <v>136529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -3687,13 +3756,13 @@
         <v>206604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3777,13 @@
         <v>35967</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3723,13 +3792,13 @@
         <v>44914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>74</v>
@@ -3738,13 +3807,13 @@
         <v>80881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3887,7 @@
         <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -3827,13 +3896,13 @@
         <v>96349</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -3842,13 +3911,13 @@
         <v>155606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3935,7 @@
         <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>173</v>
@@ -3878,13 +3947,13 @@
         <v>13681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3893,13 +3962,13 @@
         <v>25287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,49 +4030,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>83255</v>
+        <v>53218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>181092</v>
+        <v>126365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="N13" s="7">
-        <v>264347</v>
+        <v>179584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,49 +4081,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>37449</v>
+        <v>19862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>49747</v>
+        <v>31515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>87196</v>
+        <v>51376</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,10 +4132,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>120704</v>
+        <v>73080</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4078,10 +4147,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="I15" s="7">
-        <v>230839</v>
+        <v>157880</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4093,10 +4162,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c r="N15" s="7">
-        <v>351543</v>
+        <v>230960</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4122,13 +4191,13 @@
         <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -4137,13 +4206,13 @@
         <v>79145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4152,13 +4221,13 @@
         <v>112196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4242,13 @@
         <v>2849</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4188,13 +4257,13 @@
         <v>18350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4203,13 +4272,13 @@
         <v>21199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4346,13 @@
         <v>43255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -4292,13 +4361,13 @@
         <v>88059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4307,13 +4376,13 @@
         <v>131315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4397,13 @@
         <v>9747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4343,13 +4412,13 @@
         <v>17752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -4358,13 +4427,13 @@
         <v>27498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4501,13 @@
         <v>86244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4447,13 +4516,13 @@
         <v>181806</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -4465,10 +4534,10 @@
         <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4552,13 @@
         <v>24144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -4498,13 +4567,13 @@
         <v>42501</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4516,10 +4585,10 @@
         <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4656,13 @@
         <v>88116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -4602,13 +4671,13 @@
         <v>178807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -4617,13 +4686,13 @@
         <v>266923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4707,13 @@
         <v>22493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4653,13 +4722,13 @@
         <v>58235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -4668,13 +4737,13 @@
         <v>80728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4811,13 @@
         <v>463252</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>869</v>
@@ -4757,13 +4826,13 @@
         <v>941789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>1297</v>
@@ -4772,13 +4841,13 @@
         <v>1405041</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4862,13 @@
         <v>144255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -4808,13 +4877,13 @@
         <v>245179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4823,13 +4892,13 @@
         <v>389434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E9696-86D1-45E6-9D1C-558498D4C7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B9895D-F8A6-4A99-9A78-B6A7EFECFDA4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5102,13 @@
         <v>28646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5048,13 +5117,13 @@
         <v>63796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5063,13 +5132,13 @@
         <v>92442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5153,13 @@
         <v>33769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -5099,13 +5168,13 @@
         <v>29685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -5114,13 +5183,13 @@
         <v>63454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5257,13 @@
         <v>48871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5203,13 +5272,13 @@
         <v>113653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -5218,13 +5287,13 @@
         <v>162524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5308,13 @@
         <v>36040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -5254,13 +5323,13 @@
         <v>38807</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -5269,13 +5338,13 @@
         <v>74847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5412,13 @@
         <v>45042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5358,13 +5427,13 @@
         <v>86179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -5373,13 +5442,13 @@
         <v>131221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5463,13 @@
         <v>17481</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5409,13 +5478,13 @@
         <v>22468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5424,13 +5493,13 @@
         <v>39949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +5567,10 @@
         <v>75221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -5513,13 +5582,13 @@
         <v>141114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>200</v>
@@ -5528,13 +5597,13 @@
         <v>216335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5618,13 @@
         <v>28081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -5564,13 +5633,13 @@
         <v>34291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5579,13 +5648,13 @@
         <v>62372</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5722,13 @@
         <v>24088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5668,13 +5737,13 @@
         <v>55079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5683,13 +5752,13 @@
         <v>79167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5773,13 @@
         <v>4351</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5719,13 +5788,13 @@
         <v>8874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5734,13 +5803,13 @@
         <v>13225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5877,13 @@
         <v>34766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5823,13 +5892,13 @@
         <v>59699</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -5838,13 +5907,13 @@
         <v>94465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5928,13 @@
         <v>4067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5874,13 +5943,13 @@
         <v>8643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5889,13 +5958,13 @@
         <v>12710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6032,13 @@
         <v>57275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -5978,13 +6047,13 @@
         <v>104110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -5993,13 +6062,13 @@
         <v>161385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6083,13 @@
         <v>37958</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -6029,13 +6098,13 @@
         <v>43405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -6044,13 +6113,13 @@
         <v>81363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6187,13 @@
         <v>106722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H25" s="7">
         <v>171</v>
@@ -6133,13 +6202,13 @@
         <v>193769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -6148,13 +6217,13 @@
         <v>300491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6238,13 @@
         <v>49738</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -6184,13 +6253,13 @@
         <v>78352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -6199,13 +6268,13 @@
         <v>128090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6342,13 @@
         <v>420634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -6288,13 +6357,13 @@
         <v>817400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>1151</v>
@@ -6303,13 +6372,13 @@
         <v>1238033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6393,13 @@
         <v>211483</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -6339,13 +6408,13 @@
         <v>264524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -6354,13 +6423,13 @@
         <v>476007</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Provincia-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3876,7 +3876,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7207,7 +7207,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
